--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_24_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119803.7112309832</v>
+        <v>21363639.65740271</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119803.7112309832</v>
+        <v>21363639.65740271</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55706.55591915816</v>
+        <v>7030560.673125411</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55706.55591915816</v>
+        <v>7030560.673125411</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493896242.186893</v>
+        <v>52735250.20458342</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11543.90960816518</v>
+        <v>1144204.08906215</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22626.57066685104</v>
+        <v>2222075.208619462</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33721.2234637863</v>
+        <v>3299946.328176773</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45401.47956420035</v>
+        <v>4280397.671757372</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56525.82163937893</v>
+        <v>5365133.724548828</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67595.76445347932</v>
+        <v>6450078.816725433</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78626.17880765544</v>
+        <v>7534680.40914141</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89621.89968247274</v>
+        <v>8619282.001557386</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101492.7284031307</v>
+        <v>9580973.752761373</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112316.943296466</v>
+        <v>10700821.57329318</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122923.8562012629</v>
+        <v>11858659.2044879</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133382.5073124117</v>
+        <v>13013786.97471293</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>143887.0731617136</v>
+        <v>14168914.74493797</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155760.8128748274</v>
+        <v>15112826.29371653</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170451.2920207209</v>
+        <v>15738371.97777018</v>
       </c>
     </row>
   </sheetData>
